--- a/Data/Acidic/Damjanovic_Ir_E_vs_log_i.xlsx
+++ b/Data/Acidic/Damjanovic_Ir_E_vs_log_i.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/pekarste_ntnu_no/Documents/Dokumenter/NTNU/V2023/Numerics/Degradation/Data/Acidic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:4000b_{16D62B8E-0E2B-44D0-A729-3F92DCB62E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:4000b_{16D62B8E-0E2B-44D0-A729-3F92DCB62E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C54D854-1E22-40A3-8BF6-03C107AAD129}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="3375" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plot-data" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>x (j [mA/cm^2])</t>
+    <t>y (E [V vs RHE])</t>
   </si>
   <si>
-    <t>y (E [V vs RHE])</t>
+    <t>x (j [A/cm^2])</t>
   </si>
 </sst>
 </file>
@@ -870,7 +870,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -881,10 +881,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
